--- a/sources/case/Out.xlsx
+++ b/sources/case/Out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>API</t>
   </si>
@@ -53,18 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>work</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quitting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>out</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外勤打卡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,7 +85,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>out1</t>
+    <t>AttendanceOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_work</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_quitting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区西三旗街道育新花园(育新花园西路)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>育新花园(育新花园西路)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,13 +448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
@@ -480,16 +480,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -503,18 +503,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,33 +523,50 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>39.963062000000001</v>
       </c>
       <c r="E2">
         <v>116.50326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>40.056871000000001</v>
+      </c>
+      <c r="E3">
+        <v>116.34536900000001</v>
       </c>
     </row>
   </sheetData>
@@ -559,33 +577,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>39.963062000000001</v>
+      </c>
+      <c r="E2">
+        <v>116.50326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>40.056871000000001</v>
+      </c>
+      <c r="E3">
+        <v>116.34536900000001</v>
       </c>
     </row>
   </sheetData>
